--- a/Resources/Data/Excel/equip.xlsx
+++ b/Resources/Data/Excel/equip.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\unity project\Meteor Apocalypse\Assets\shareArea1\Resource\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\unity project\game\Assets\shareArea1\Resources\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69AC622-E416-4952-A667-E497AAFCD3DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF40F1B1-09D5-4EE6-A398-F1A0C9B991A2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="装备属性表" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -34,6 +34,33 @@
     <t>magic</t>
   </si>
   <si>
+    <t>physicRes</t>
+  </si>
+  <si>
+    <t>magicRes</t>
+  </si>
+  <si>
+    <t>attackValue</t>
+  </si>
+  <si>
+    <t>attackSpeed</t>
+  </si>
+  <si>
+    <t>magicPower</t>
+  </si>
+  <si>
+    <t>critcalRate</t>
+  </si>
+  <si>
+    <t>dodgeRate</t>
+  </si>
+  <si>
+    <t>hpRestoreSpeed</t>
+  </si>
+  <si>
+    <t>mpRestoreSpeed</t>
+  </si>
+  <si>
     <t>strength</t>
   </si>
   <si>
@@ -47,12 +74,6 @@
   </si>
   <si>
     <t>physique</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>dodgeRate</t>
   </si>
   <si>
     <t>弑君</t>
@@ -67,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -77,11 +98,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -110,10 +126,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -496,15 +511,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -538,13 +557,34 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -556,30 +596,51 @@
         <v>0</v>
       </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>10</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>30</v>
-      </c>
-      <c r="K2">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -588,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -606,6 +667,27 @@
         <v>0</v>
       </c>
       <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>0</v>
       </c>
     </row>

--- a/Resources/Data/Excel/equip.xlsx
+++ b/Resources/Data/Excel/equip.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\unity project\game\Assets\shareArea1\Resources\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF40F1B1-09D5-4EE6-A398-F1A0C9B991A2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5B3BE6-6A48-4680-88A0-C860E9FA00C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="3465" windowWidth="18780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="装备属性表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -28,6 +28,12 @@
     <t>Name</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
     <t>health</t>
   </si>
   <si>
@@ -77,33 +83,63 @@
   </si>
   <si>
     <t>弑君</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>胸甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁剑</t>
+  </si>
+  <si>
+    <t>手斧</t>
+  </si>
+  <si>
+    <t>木杖</t>
+  </si>
+  <si>
+    <t>布衣</t>
+  </si>
+  <si>
+    <t>皮甲</t>
+  </si>
+  <si>
+    <t>布帽</t>
+  </si>
+  <si>
+    <t>皮手套</t>
+  </si>
+  <si>
+    <t>布裤甲</t>
+  </si>
+  <si>
+    <t>布鞋</t>
+  </si>
+  <si>
+    <t>布腰带</t>
+  </si>
+  <si>
+    <t>铜戒</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,7 +164,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -257,7 +293,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -290,26 +326,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -342,23 +361,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -501,29 +503,24 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -578,20 +575,22 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
       <c r="E2">
         <v>0</v>
       </c>
@@ -599,13 +598,13 @@
         <v>0</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>100</v>
-      </c>
-      <c r="H2">
-        <v>15</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
       </c>
       <c r="J2">
         <v>15</v>
@@ -614,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -623,76 +622,700 @@
         <v>0</v>
       </c>
       <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>10</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
       <c r="R2">
         <v>0</v>
       </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3">
         <v>100</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
         <v>5</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>15</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>3</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Resources/Data/Excel/equip.xlsx
+++ b/Resources/Data/Excel/equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\unity project\game\Assets\shareArea1\Resources\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5B3BE6-6A48-4680-88A0-C860E9FA00C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468EA22B-A6B4-4C97-9543-8A65571EF923}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5070" yWindow="3465" windowWidth="18780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -119,13 +119,21 @@
   </si>
   <si>
     <t>铜戒</t>
+  </si>
+  <si>
+    <t>currentHealth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentMagic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -140,6 +148,17 @@
       <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,9 +181,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -508,19 +529,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="15" max="15" width="9.140625" customWidth="1"/>
     <col min="18" max="18" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -581,8 +602,14 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2">
         <v>1</v>
       </c>
@@ -639,9 +666,14 @@
       <c r="T2">
         <v>0</v>
       </c>
-      <c r="U2" s="1"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3">
         <v>2</v>
       </c>
@@ -697,8 +729,14 @@
       <c r="T3">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4">
         <v>3</v>
       </c>
@@ -753,8 +791,14 @@
       <c r="T4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5">
         <v>4</v>
       </c>
@@ -809,8 +853,14 @@
       <c r="T5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6">
         <v>5</v>
       </c>
@@ -865,8 +915,14 @@
       <c r="T6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7">
         <v>6</v>
       </c>
@@ -921,8 +977,14 @@
       <c r="T7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8">
         <v>7</v>
       </c>
@@ -977,8 +1039,14 @@
       <c r="T8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1033,8 +1101,14 @@
       <c r="T9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1089,8 +1163,14 @@
       <c r="T10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1145,8 +1225,14 @@
       <c r="T11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1201,8 +1287,14 @@
       <c r="T12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1257,8 +1349,14 @@
       <c r="T13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1313,6 +1411,18 @@
       <c r="T14">
         <v>0</v>
       </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="B16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
